--- a/HLE-DVC data.xlsx
+++ b/HLE-DVC data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="14355" windowHeight="10050"/>
   </bookViews>
   <sheets>
     <sheet name="HLE-DVC size" sheetId="13" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="63">
   <si>
     <t>n</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>log N</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>g2</t>
@@ -1174,7 +1177,7 @@
   <dimension ref="A1:V52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
@@ -1283,8 +1286,11 @@
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:22">
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
       <c r="S7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T7">
         <v>96</v>
@@ -1334,7 +1340,7 @@
     </row>
     <row r="11" customFormat="1" spans="1:22">
       <c r="S11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T11">
         <v>576</v>
@@ -1348,16 +1354,16 @@
     </row>
     <row r="12" customFormat="1" spans="1:22">
       <c r="H12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T12">
         <v>576</v>
@@ -1371,7 +1377,7 @@
     </row>
     <row r="13" customFormat="1" spans="1:22">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <f>R22*T3</f>
@@ -1418,7 +1424,7 @@
         <v>288</v>
       </c>
       <c r="H14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I14">
         <f>I13</f>
@@ -1481,7 +1487,7 @@
     </row>
     <row r="18" customFormat="1" spans="1:20">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18">
         <f>(R22+0.5)*T7</f>
@@ -1574,7 +1580,7 @@
     </row>
     <row r="21" customFormat="1" spans="1:20">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B21">
         <f>(B4+3)*B1*I14</f>
@@ -1707,7 +1713,7 @@
     </row>
     <row r="24" customFormat="1" spans="1:20">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B24">
         <f>R22*T3</f>
@@ -1788,7 +1794,7 @@
         <v>67108864</v>
       </c>
       <c r="Q26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R26" t="str">
         <f>IMLOG2(M26)</f>
@@ -1805,7 +1811,7 @@
     </row>
     <row r="27" customFormat="1" spans="1:20">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B27">
         <f>(R22+1)*T3</f>
@@ -1898,7 +1904,7 @@
     </row>
     <row r="30" customFormat="1" spans="1:20">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B30">
         <f>B27</f>
@@ -1913,7 +1919,7 @@
         <v>240</v>
       </c>
       <c r="J30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="1:20">
@@ -1946,7 +1952,7 @@
     </row>
     <row r="33" customFormat="1" spans="1:11">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B33">
         <f>M22*B30</f>
@@ -1991,7 +1997,7 @@
     </row>
     <row r="37" customFormat="1" spans="1:11">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B37">
         <f>6*(T3+T7+T11)*ROUNDUP(LOG(M22*R22,2),0)</f>
@@ -2036,7 +2042,7 @@
     </row>
     <row r="41" customFormat="1" spans="1:11">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B41">
         <f>2*B24+T3</f>
@@ -2085,7 +2091,7 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B46">
         <f>(R22+1)*M26*T3</f>
@@ -2170,7 +2176,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B50">
         <f>(M17+M22)*T3</f>
@@ -2299,7 +2305,7 @@
         <v>1073741824</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:14">
@@ -2358,16 +2364,16 @@
     </row>
     <row r="12" customFormat="1" spans="1:14">
       <c r="H12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:14">
@@ -2383,7 +2389,7 @@
     </row>
     <row r="14" customFormat="1" spans="1:14">
       <c r="H14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I14">
         <f t="shared" ref="I14:K14" si="0">I13</f>
@@ -2400,24 +2406,24 @@
     </row>
     <row r="16" customFormat="1" spans="1:14">
       <c r="J16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:16">
       <c r="I17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J17">
         <f>I14</f>
@@ -2438,7 +2444,7 @@
     </row>
     <row r="18" customFormat="1" spans="1:16">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18">
         <f>(B4+0.5)*J14</f>
@@ -2453,7 +2459,7 @@
         <v>816</v>
       </c>
       <c r="I18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:16">
@@ -2470,7 +2476,7 @@
         <v>816</v>
       </c>
       <c r="I19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:16">
@@ -2487,12 +2493,12 @@
         <v>816</v>
       </c>
       <c r="I20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:16">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21">
         <f>(B4+3)*B1*I14</f>
@@ -2519,7 +2525,7 @@
         <v>566.935683072</v>
       </c>
       <c r="I21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:16">
@@ -2548,7 +2554,7 @@
         <v>566.935683072</v>
       </c>
       <c r="I22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J22">
         <f>I14</f>
@@ -2601,7 +2607,7 @@
         <v>566.935683072</v>
       </c>
       <c r="I23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N23">
         <f>N22/1000000000</f>
@@ -2610,7 +2616,7 @@
     </row>
     <row r="24" customFormat="1" spans="1:16">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B24">
         <f>(B4)*I14</f>
@@ -2655,7 +2661,7 @@
     </row>
     <row r="27" customFormat="1" spans="1:16">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B27">
         <f>(B4+1)*I14</f>
@@ -2700,7 +2706,7 @@
     </row>
     <row r="30" customFormat="1" spans="1:16">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B30">
         <v>384</v>
@@ -2712,10 +2718,10 @@
         <v>384</v>
       </c>
       <c r="J30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="1:16">
@@ -2732,7 +2738,7 @@
         <v>1024</v>
       </c>
       <c r="K31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="1:16">
@@ -2761,7 +2767,7 @@
     </row>
     <row r="33" customFormat="1" spans="1:16">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33">
         <f>12*6*(I14+J14+K14)</f>
@@ -2780,15 +2786,15 @@
         <v>56160</v>
       </c>
       <c r="J35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" customFormat="1" spans="1:16">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J36">
         <v>1024</v>
@@ -2820,10 +2826,10 @@
     </row>
     <row r="43" customFormat="1" spans="1:16">
       <c r="B43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="3:5">
@@ -2933,7 +2939,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11">
         <v>665911.08</v>
@@ -2941,7 +2947,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12">
         <v>0.00029</v>
@@ -2949,7 +2955,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B13">
         <v>0.0023</v>
@@ -2957,7 +2963,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B14">
         <v>324.36</v>
@@ -2965,7 +2971,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B15">
         <v>0.0051</v>
@@ -2973,7 +2979,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16">
         <v>324.4</v>
@@ -2981,7 +2987,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17">
         <v>0.0056</v>
@@ -2989,7 +2995,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B21">
         <v>364.06</v>
@@ -2997,7 +3003,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22">
         <v>2594.88</v>
@@ -3005,13 +3011,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B23">
         <v>14920.56</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <f>B23+B22</f>
@@ -3020,7 +3026,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B24">
         <v>648.72</v>
@@ -3028,7 +3034,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B26">
         <v>0.123</v>
@@ -3036,7 +3042,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B27">
         <v>9.49</v>
@@ -3044,7 +3050,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B28">
         <v>0.0448</v>
@@ -3052,7 +3058,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B31">
         <v>17515.44</v>
